--- a/diagrams/the material sizes.xlsx
+++ b/diagrams/the material sizes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E7E58-7E85-48AE-B21A-D14968BDE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450B0FD-8C60-4009-A74F-4E682D746DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diagrams/the material sizes.xlsx
+++ b/diagrams/the material sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450B0FD-8C60-4009-A74F-4E682D746DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B701631B-F232-4A1E-8286-6A261A94BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>(one)</t>
   </si>
@@ -876,7 +876,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,9 +1014,7 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="26" t="s">
         <v>25</v>
       </c>
@@ -1100,10 +1098,10 @@
       <c r="U6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="V6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
@@ -1139,9 +1137,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="27" t="s">
         <v>25</v>
       </c>
@@ -1170,9 +1166,7 @@
       <c r="W8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="X8" s="22"/>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
@@ -1208,7 +1202,9 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="27" t="s">
         <v>25</v>
       </c>
@@ -1235,9 +1231,7 @@
       <c r="X10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Y10" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="8"/>
@@ -1297,10 +1291,10 @@
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="8"/>
     </row>
@@ -1336,9 +1330,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
